--- a/src/main/resources/sample.xlsx
+++ b/src/main/resources/sample.xlsx
@@ -37,7 +37,7 @@
     <t>Jane</t>
   </si>
   <si>
-    <t>Wiklander</t>
+    <t>Wiklander,J</t>
   </si>
   <si>
     <t>1900-01-01</t>
